--- a/log/2024_03_03/resps.xlsx
+++ b/log/2024_03_03/resps.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\K500-Beamline\log\2024_03_02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\K500-Beamline\log\2024_03_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18408" windowHeight="6072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18408" windowHeight="6072" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="L21-L23 калибровка" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="48">
   <si>
     <t>init_x</t>
   </si>
@@ -170,6 +170,9 @@
  показания DT9(10) по Х в 2 раза больше 
 по У в 1.1 раза больше</t>
   </si>
+  <si>
+    <t>KZ13 -320 -&gt; -280 mA</t>
+  </si>
 </sst>
 </file>
 
@@ -190,7 +193,7 @@
       <name val="Var(--jp-code-font-family)"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +209,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,21 +317,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -344,15 +350,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,6 +360,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -370,6 +375,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -652,14 +669,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AG30"/>
+  <dimension ref="A2:AG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="24.21875" customWidth="1"/>
@@ -668,80 +686,80 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="J2" s="3" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="J2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="R2" s="3" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="R2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Z2" s="3" t="s">
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Z2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="J3" s="4" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="J3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="R3" s="4" t="s">
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="R3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Z3" s="4" t="s">
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Z3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
     </row>
     <row r="4" spans="1:33">
       <c r="B4" s="1"/>
@@ -1174,10 +1192,10 @@
       <c r="N9" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="P9" s="5"/>
+      <c r="P9" s="29"/>
       <c r="R9" s="1"/>
       <c r="U9" t="s">
         <v>44</v>
@@ -1185,7 +1203,7 @@
       <c r="V9" t="s">
         <v>45</v>
       </c>
-      <c r="W9" s="5" t="s">
+      <c r="W9" s="29" t="s">
         <v>46</v>
       </c>
       <c r="Z9" s="1"/>
@@ -1195,7 +1213,7 @@
       <c r="AD9" t="s">
         <v>45</v>
       </c>
-      <c r="AE9" s="5" t="s">
+      <c r="AE9" s="29" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1209,8 +1227,8 @@
       <c r="N10">
         <v>5.76</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
       <c r="R10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1220,7 +1238,7 @@
       <c r="V10">
         <v>5.66</v>
       </c>
-      <c r="W10" s="5"/>
+      <c r="W10" s="29"/>
       <c r="Z10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1230,7 +1248,7 @@
       <c r="AD10">
         <v>5.8</v>
       </c>
-      <c r="AE10" s="5"/>
+      <c r="AE10" s="29"/>
     </row>
     <row r="11" spans="1:33">
       <c r="J11" s="1" t="s">
@@ -1242,8 +1260,8 @@
       <c r="N11">
         <v>4.2300000000000004</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
       <c r="R11" s="1" t="s">
         <v>43</v>
       </c>
@@ -1253,7 +1271,7 @@
       <c r="V11">
         <v>3.27</v>
       </c>
-      <c r="W11" s="5"/>
+      <c r="W11" s="29"/>
       <c r="Z11" s="1" t="s">
         <v>43</v>
       </c>
@@ -1263,86 +1281,86 @@
       <c r="AD11">
         <v>-0.62</v>
       </c>
-      <c r="AE11" s="5"/>
+      <c r="AE11" s="29"/>
     </row>
     <row r="12" spans="1:33">
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="AE12" s="5"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="AE12" s="29"/>
     </row>
     <row r="13" spans="1:33">
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="R13" s="3" t="s">
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="R13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="AA13" s="3" t="s">
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="AA13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
     </row>
     <row r="14" spans="1:33" ht="15" thickBot="1">
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="R14" s="4" t="s">
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="R14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Z14" s="4" t="s">
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Z14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
     </row>
     <row r="15" spans="1:33">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="4">
         <v>48</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <v>23.38</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
       <c r="J15" s="1"/>
@@ -1404,19 +1422,19 @@
       </c>
     </row>
     <row r="16" spans="1:33">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="7">
         <v>-32.4</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="7">
         <v>-24.25</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="8" t="s">
         <v>33</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -1484,19 +1502,19 @@
       </c>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="7">
         <v>22.4</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="7">
         <v>13.68</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="8" t="s">
         <v>33</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -1564,13 +1582,13 @@
       </c>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
       <c r="J18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1636,19 +1654,19 @@
       </c>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="7">
         <v>-320</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="7">
         <v>340</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="8" t="s">
         <v>34</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -1716,73 +1734,147 @@
       </c>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:32">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="7">
         <v>48.3</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="7">
         <v>33.03</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:32">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="7">
         <v>-32.4</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="7">
         <v>-24.25</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="15" thickBot="1">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="10">
         <v>22.4</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="10">
         <v>13.65</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="O23">
+        <f>O16-O5</f>
+        <v>-1.0622499999999999</v>
+      </c>
+      <c r="P23" s="23">
+        <f>P16-P5</f>
+        <v>-0.47615500000000011</v>
+      </c>
+      <c r="W23">
+        <f>W16-W5</f>
+        <v>1.2334000000000012E-2</v>
+      </c>
+      <c r="X23" s="23">
+        <f>X16-X5</f>
+        <v>0.8543980000000001</v>
+      </c>
+      <c r="AE23">
+        <f>AE16-AE5</f>
+        <v>-3.866500000000006E-2</v>
+      </c>
+      <c r="AF23" s="21">
+        <f>AF16-AF5</f>
+        <v>-7.5289999999999857E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="O24">
+        <f t="shared" ref="O24:P25" si="0">O17-O6</f>
+        <v>1.4598690000000001</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>2.2400959999999999</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ref="W24:X25" si="1">W17-W6</f>
+        <v>-0.29013100000000003</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="1"/>
+        <v>-1.5108999999999999E-2</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" ref="AE24:AF25" si="2">AE17-AE6</f>
+        <v>-1.9347000000000003E-2</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="2"/>
+        <v>-5.9202000000000421E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:32">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>0.28520900000000005</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>-4.8678999999999972E-2</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="1"/>
+        <v>7.0776000000000061E-2</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="1"/>
+        <v>5.5942000000000047E-2</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="2"/>
+        <v>-0.1334789999999999</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="2"/>
+        <v>0.24168099999999981</v>
+      </c>
     </row>
     <row r="26" spans="1:32">
       <c r="B26" s="1"/>
@@ -1897,13 +1989,137 @@
         <v>-0.25631599999999999</v>
       </c>
     </row>
+    <row r="32" spans="1:32">
+      <c r="B32" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="1"/>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>-3.556622</v>
+      </c>
+      <c r="D34">
+        <v>-7.5365539999999998</v>
+      </c>
+      <c r="E34">
+        <v>-3.399397</v>
+      </c>
+      <c r="F34">
+        <v>-5.7835710000000002</v>
+      </c>
+      <c r="G34">
+        <v>0.157225</v>
+      </c>
+      <c r="H34">
+        <v>1.752983</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>9.1675000000000006E-2</v>
+      </c>
+      <c r="D35">
+        <v>-6.0460890000000003</v>
+      </c>
+      <c r="E35">
+        <v>0.25565399999999999</v>
+      </c>
+      <c r="F35">
+        <v>-2.9489679999999998</v>
+      </c>
+      <c r="G35">
+        <v>0.16397900000000001</v>
+      </c>
+      <c r="H35">
+        <v>3.097121</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>-2.9615209999999998</v>
+      </c>
+      <c r="D36">
+        <v>-0.77235799999999999</v>
+      </c>
+      <c r="E36">
+        <v>-3.5004110000000002</v>
+      </c>
+      <c r="F36">
+        <v>1.7255E-2</v>
+      </c>
+      <c r="G36">
+        <v>-0.53888999999999998</v>
+      </c>
+      <c r="H36">
+        <v>0.78961199999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>-1.2268559999999999</v>
+      </c>
+      <c r="D37">
+        <v>0.47181899999999999</v>
+      </c>
+      <c r="E37">
+        <v>-0.62504800000000005</v>
+      </c>
+      <c r="F37">
+        <v>0.137514</v>
+      </c>
+      <c r="G37">
+        <v>0.60180800000000001</v>
+      </c>
+      <c r="H37">
+        <v>-0.33430599999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A18:E18"/>
+  <mergeCells count="20">
     <mergeCell ref="B25:H25"/>
     <mergeCell ref="W9:W12"/>
     <mergeCell ref="AE9:AE12"/>
     <mergeCell ref="O9:P12"/>
+    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="J2:P2"/>
     <mergeCell ref="R14:X14"/>
@@ -1918,6 +2134,7 @@
     <mergeCell ref="Z3:AF3"/>
     <mergeCell ref="J14:P14"/>
     <mergeCell ref="R13:X13"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1928,76 +2145,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:BE16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:I3"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11:Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="3" spans="1:57">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="K3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="S3" s="4" t="s">
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="S3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="AA3" s="4" t="s">
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="AA3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AI3" s="4" t="s">
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AI3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AQ3" s="4" t="s">
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AQ3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="AY3" s="4" t="s">
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="24"/>
+      <c r="AU3" s="24"/>
+      <c r="AV3" s="24"/>
+      <c r="AW3" s="24"/>
+      <c r="AY3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
-      <c r="BE3" s="4"/>
+      <c r="AZ3" s="24"/>
+      <c r="BA3" s="24"/>
+      <c r="BB3" s="24"/>
+      <c r="BC3" s="24"/>
+      <c r="BD3" s="24"/>
+      <c r="BE3" s="24"/>
     </row>
     <row r="4" spans="1:57">
       <c r="C4" s="1"/>
@@ -2732,126 +2949,138 @@
     </row>
     <row r="9" spans="1:57" ht="15" thickBot="1"/>
     <row r="10" spans="1:57">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>-280</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>-340</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>34</v>
       </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:57">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>-1320</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <v>-1020</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K11" s="1"/>
+      <c r="Y11">
+        <f>Y5/-0.0002249/1000</f>
+        <v>1.4406891951978658</v>
+      </c>
     </row>
     <row r="12" spans="1:57">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>160</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <v>100</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K12" s="1"/>
+      <c r="Y12">
+        <f t="shared" ref="Y12:Y13" si="0">Y6/-0.0002249/1000</f>
+        <v>2.5001467318808359</v>
+      </c>
     </row>
     <row r="13" spans="1:57">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="7">
         <v>-670</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="7">
         <v>-570</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K13" s="1"/>
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>1.9255713650511339</v>
+      </c>
     </row>
     <row r="14" spans="1:57">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="7">
         <v>-38.67</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="7">
         <v>-22.29</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="8" t="s">
         <v>33</v>
       </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:57">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="7">
         <v>-21.58</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="7">
         <v>-13.17</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:57" ht="15" thickBot="1">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="10">
         <v>10.1</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="10">
         <v>16.88</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2874,8 +3103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:BP22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BJ24" sqref="BJ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2886,11 +3115,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:68" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
       <c r="Q3" t="s">
         <v>41</v>
       </c>
@@ -2914,100 +3143,100 @@
       </c>
     </row>
     <row r="4" spans="1:68">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="4" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="N4" s="4" t="s">
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="N4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="V4" s="4" t="s">
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="V4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AD4" s="4" t="s">
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AD4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AL4" s="4" t="s">
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AL4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AT4" s="4" t="s">
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="24"/>
+      <c r="AT4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BB4" s="4" t="s">
+      <c r="AU4" s="24"/>
+      <c r="AV4" s="24"/>
+      <c r="AW4" s="24"/>
+      <c r="AX4" s="24"/>
+      <c r="AY4" s="24"/>
+      <c r="AZ4" s="24"/>
+      <c r="BB4" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-      <c r="BF4" s="4"/>
-      <c r="BG4" s="4"/>
-      <c r="BH4" s="4"/>
-      <c r="BJ4" s="4" t="s">
+      <c r="BC4" s="24"/>
+      <c r="BD4" s="24"/>
+      <c r="BE4" s="24"/>
+      <c r="BF4" s="24"/>
+      <c r="BG4" s="24"/>
+      <c r="BH4" s="24"/>
+      <c r="BJ4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="BK4" s="4"/>
-      <c r="BL4" s="4"/>
-      <c r="BM4" s="4"/>
-      <c r="BN4" s="4"/>
-      <c r="BO4" s="4"/>
-      <c r="BP4" s="4"/>
+      <c r="BK4" s="24"/>
+      <c r="BL4" s="24"/>
+      <c r="BM4" s="24"/>
+      <c r="BN4" s="24"/>
+      <c r="BO4" s="24"/>
+      <c r="BP4" s="24"/>
     </row>
     <row r="5" spans="1:68">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>-23.15</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="13">
         <v>-9.18</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="14" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="1"/>
@@ -3164,19 +3393,19 @@
       </c>
     </row>
     <row r="6" spans="1:68">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>-8.93</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="13">
         <v>-18.11</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="14" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -3349,19 +3578,19 @@
       </c>
     </row>
     <row r="7" spans="1:68">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="13">
         <v>33.08</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="13">
         <v>23.57</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="14" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -3534,19 +3763,19 @@
       </c>
     </row>
     <row r="8" spans="1:68">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="13">
         <v>-57.79</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="13">
         <v>-34.549999999999997</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="14" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -3719,19 +3948,19 @@
       </c>
     </row>
     <row r="9" spans="1:68">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="13">
         <v>51.3</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="13">
         <v>32.61</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="14" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -3904,156 +4133,156 @@
       </c>
     </row>
     <row r="10" spans="1:68">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="13">
         <v>-52</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="13">
         <v>-32.15</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>33</v>
       </c>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:68">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="13">
         <v>48.86</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="13">
         <v>26.52</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:68" s="27" customFormat="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="Q12" s="27" t="s">
+    <row r="12" spans="1:68" s="21" customFormat="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="Q12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="Y12" s="27" t="s">
+      <c r="Y12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AG12" s="27" t="s">
+      <c r="AG12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AO12" s="27" t="s">
+      <c r="AO12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AW12" s="27" t="s">
+      <c r="AW12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="BE12" s="27" t="s">
+      <c r="BE12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="BM12" s="27" t="s">
+      <c r="BM12" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:68">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="13">
         <v>160</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="13">
         <v>120</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="V13" s="4" t="s">
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="V13" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AD13" s="4" t="s">
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AD13" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AL13" s="4" t="s">
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24"/>
+      <c r="AL13" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AT13" s="4" t="s">
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="24"/>
+      <c r="AQ13" s="24"/>
+      <c r="AR13" s="24"/>
+      <c r="AT13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AU13" s="4"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="AX13" s="4"/>
-      <c r="AY13" s="4"/>
-      <c r="AZ13" s="4"/>
-      <c r="BB13" s="4" t="s">
+      <c r="AU13" s="24"/>
+      <c r="AV13" s="24"/>
+      <c r="AW13" s="24"/>
+      <c r="AX13" s="24"/>
+      <c r="AY13" s="24"/>
+      <c r="AZ13" s="24"/>
+      <c r="BB13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="BC13" s="4"/>
-      <c r="BD13" s="4"/>
-      <c r="BE13" s="4"/>
-      <c r="BF13" s="4"/>
-      <c r="BG13" s="4"/>
-      <c r="BH13" s="4"/>
-      <c r="BJ13" s="4" t="s">
+      <c r="BC13" s="24"/>
+      <c r="BD13" s="24"/>
+      <c r="BE13" s="24"/>
+      <c r="BF13" s="24"/>
+      <c r="BG13" s="24"/>
+      <c r="BH13" s="24"/>
+      <c r="BJ13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="BK13" s="4"/>
-      <c r="BL13" s="4"/>
-      <c r="BM13" s="4"/>
-      <c r="BN13" s="4"/>
-      <c r="BO13" s="4"/>
-      <c r="BP13" s="4"/>
+      <c r="BK13" s="24"/>
+      <c r="BL13" s="24"/>
+      <c r="BM13" s="24"/>
+      <c r="BN13" s="24"/>
+      <c r="BO13" s="24"/>
+      <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:68">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
       <c r="N14" s="1"/>
       <c r="O14" t="s">
         <v>0</v>
@@ -4189,19 +4418,19 @@
       </c>
     </row>
     <row r="15" spans="1:68">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <v>-23.15</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="13">
         <v>-13.8</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
       <c r="N15" s="1" t="s">
@@ -4353,19 +4582,19 @@
       </c>
     </row>
     <row r="16" spans="1:68">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="13">
         <v>-8.9700000000000006</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="13">
         <v>-18.11</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="14" t="s">
         <v>33</v>
       </c>
       <c r="N16" s="1" t="s">
@@ -4517,19 +4746,19 @@
       </c>
     </row>
     <row r="17" spans="1:68">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="13">
         <v>33.08</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="13">
         <v>18.84</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="14" t="s">
         <v>33</v>
       </c>
       <c r="N17" s="1" t="s">
@@ -4681,19 +4910,19 @@
       </c>
     </row>
     <row r="18" spans="1:68">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="13">
         <v>-57.8</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="13">
         <v>-34.56</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="14" t="s">
         <v>33</v>
       </c>
       <c r="N18" s="1" t="s">
@@ -4845,61 +5074,229 @@
       </c>
     </row>
     <row r="19" spans="1:68" ht="14.4" customHeight="1">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="13">
         <v>51.34</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="13">
         <v>32.6</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="14" t="s">
         <v>33</v>
       </c>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:68">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="13">
         <v>-52.04</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="13">
         <v>-34.67</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="14" t="s">
         <v>33</v>
       </c>
       <c r="N20" s="1"/>
+      <c r="S20">
+        <f>S15-S6</f>
+        <v>0.23888300000000001</v>
+      </c>
+      <c r="T20">
+        <f>T15-T6</f>
+        <v>0.26760300000000004</v>
+      </c>
+      <c r="AA20">
+        <f>AA15-AA6</f>
+        <v>0.218331</v>
+      </c>
+      <c r="AB20">
+        <f>AB15-AB6</f>
+        <v>-0.19967199999999999</v>
+      </c>
+      <c r="AI20">
+        <f>AI15-AI6</f>
+        <v>0.40878900000000001</v>
+      </c>
+      <c r="AJ20">
+        <f>AJ15-AJ6</f>
+        <v>-0.15634500000000001</v>
+      </c>
+      <c r="AQ20">
+        <f>AQ15-AQ6</f>
+        <v>0.35504499999999994</v>
+      </c>
+      <c r="AR20">
+        <f>AR15-AR6</f>
+        <v>-0.12690699999999999</v>
+      </c>
+      <c r="AY20">
+        <f>AY15-AY6</f>
+        <v>0.15934299999999998</v>
+      </c>
+      <c r="AZ20">
+        <f>AZ15-AZ6</f>
+        <v>-0.151394</v>
+      </c>
+      <c r="BG20">
+        <f>BG15-BG6</f>
+        <v>0.19505400000000001</v>
+      </c>
+      <c r="BH20">
+        <f>BH15-BH6</f>
+        <v>-0.138516</v>
+      </c>
+      <c r="BO20">
+        <f>BO15-BO6</f>
+        <v>-2.4548E-2</v>
+      </c>
+      <c r="BP20">
+        <f>BP15-BP6</f>
+        <v>-0.10597200000000001</v>
+      </c>
     </row>
     <row r="21" spans="1:68" ht="15" thickBot="1">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="16">
         <v>48.64</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="16">
         <v>30.1</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="17" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="1"/>
+      <c r="S21">
+        <f t="shared" ref="S21:T23" si="0">S16-S7</f>
+        <v>-0.17532700000000001</v>
+      </c>
+      <c r="T21" s="22">
+        <f t="shared" si="0"/>
+        <v>-0.28464300000000003</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" ref="AA21:AB22" si="1">AA16-AA7</f>
+        <v>-1.4710000000000001E-3</v>
+      </c>
+      <c r="AB21" s="22">
+        <f t="shared" si="1"/>
+        <v>0.16701199999999994</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" ref="AI21:AJ22" si="2">AI16-AI7</f>
+        <v>-0.65611399999999986</v>
+      </c>
+      <c r="AJ21" s="22">
+        <f>AJ16-AJ7</f>
+        <v>0.37440999999999991</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" ref="AQ21:AR22" si="3">AQ16-AQ7</f>
+        <v>0.106388</v>
+      </c>
+      <c r="AR21" s="22">
+        <f t="shared" si="3"/>
+        <v>-0.26315699999999986</v>
+      </c>
+      <c r="AY21">
+        <f t="shared" ref="AY21:AZ22" si="4">AY16-AY7</f>
+        <v>-3.0945E-2</v>
+      </c>
+      <c r="AZ21">
+        <f t="shared" si="4"/>
+        <v>-8.8941999999999966E-2</v>
+      </c>
+      <c r="BG21">
+        <f t="shared" ref="BG21:BH22" si="5">BG16-BG7</f>
+        <v>3.1121999999999997E-2</v>
+      </c>
+      <c r="BH21">
+        <f t="shared" si="5"/>
+        <v>-0.44156799999999996</v>
+      </c>
+      <c r="BO21">
+        <f>BO16-BO7</f>
+        <v>3.7624999999999999E-2</v>
+      </c>
+      <c r="BP21">
+        <f>BP16-BP7</f>
+        <v>-0.198161</v>
+      </c>
     </row>
     <row r="22" spans="1:68">
       <c r="N22" s="1"/>
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>-8.4776999999999936E-2</v>
+      </c>
+      <c r="T22">
+        <f>T17-T8</f>
+        <v>0.9599899999999999</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="1"/>
+        <v>-1.6644999999999993E-2</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="1"/>
+        <v>-0.11672499999999997</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="2"/>
+        <v>-6.3889000000000001E-2</v>
+      </c>
+      <c r="AJ22" s="22">
+        <f t="shared" si="2"/>
+        <v>1.0166969999999997</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="3"/>
+        <v>0.107128</v>
+      </c>
+      <c r="AR22">
+        <f t="shared" si="3"/>
+        <v>7.626199999999983E-2</v>
+      </c>
+      <c r="AY22">
+        <f t="shared" si="4"/>
+        <v>-1.0944999999999983E-2</v>
+      </c>
+      <c r="AZ22" s="22">
+        <f t="shared" si="4"/>
+        <v>0.18885500000000022</v>
+      </c>
+      <c r="BG22">
+        <f t="shared" si="5"/>
+        <v>5.2449999999999997E-2</v>
+      </c>
+      <c r="BH22" s="22">
+        <f t="shared" si="5"/>
+        <v>-6.1148230000000003</v>
+      </c>
+      <c r="BO22">
+        <f>BO17-BO8</f>
+        <v>7.3585999999999985E-2</v>
+      </c>
+      <c r="BP22" s="23">
+        <f>BP17-BP8</f>
+        <v>-0.15615800000000002</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -4922,5 +5319,6 @@
     <mergeCell ref="BJ4:BP4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>